--- a/natmiOut/OldD2/LR-pairs_lrc2p/Sema4d-Met.xlsx
+++ b/natmiOut/OldD2/LR-pairs_lrc2p/Sema4d-Met.xlsx
@@ -537,52 +537,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>0.5755711073794449</v>
+        <v>0.6496915</v>
       </c>
       <c r="H2">
-        <v>0.5755711073794449</v>
+        <v>1.299383</v>
       </c>
       <c r="I2">
-        <v>0.005018792160088996</v>
+        <v>0.005425816501278846</v>
       </c>
       <c r="J2">
-        <v>0.005018792160088996</v>
+        <v>0.003655611729725819</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>2.97403257029727</v>
+        <v>3.180483</v>
       </c>
       <c r="N2">
-        <v>2.97403257029727</v>
+        <v>6.360966</v>
       </c>
       <c r="O2">
-        <v>0.05898461938000204</v>
+        <v>0.06092186256078212</v>
       </c>
       <c r="P2">
-        <v>0.05898461938000204</v>
+        <v>0.05506293733437207</v>
       </c>
       <c r="Q2">
-        <v>1.711767219868537</v>
+        <v>2.0663327709945</v>
       </c>
       <c r="R2">
-        <v>1.711767219868537</v>
+        <v>8.265331083977999</v>
       </c>
       <c r="S2">
-        <v>0.0002960315453101877</v>
+        <v>0.0003305508471709335</v>
       </c>
       <c r="T2">
-        <v>0.0002960315453101877</v>
+        <v>0.0002012887195926883</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -599,52 +599,52 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>0.5755711073794449</v>
+        <v>0.6496915</v>
       </c>
       <c r="H3">
-        <v>0.5755711073794449</v>
+        <v>1.299383</v>
       </c>
       <c r="I3">
-        <v>0.005018792160088996</v>
+        <v>0.005425816501278846</v>
       </c>
       <c r="J3">
-        <v>0.005018792160088996</v>
+        <v>0.003655611729725819</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>0.555295461770121</v>
+        <v>0.7202763333333334</v>
       </c>
       <c r="N3">
-        <v>0.555295461770121</v>
+        <v>2.160829</v>
       </c>
       <c r="O3">
-        <v>0.01101329278740183</v>
+        <v>0.01379682764696979</v>
       </c>
       <c r="P3">
-        <v>0.01101329278740183</v>
+        <v>0.01870495641971579</v>
       </c>
       <c r="Q3">
-        <v>0.3196120238538088</v>
+        <v>0.4679574114178334</v>
       </c>
       <c r="R3">
-        <v>0.3196120238538088</v>
+        <v>2.807744468507</v>
       </c>
       <c r="S3">
-        <v>5.527342749817701E-05</v>
+        <v>7.485905511222888E-05</v>
       </c>
       <c r="T3">
-        <v>5.527342749817701E-05</v>
+        <v>6.837805809192331E-05</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -661,52 +661,52 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>0.5755711073794449</v>
+        <v>0.6496915</v>
       </c>
       <c r="H4">
-        <v>0.5755711073794449</v>
+        <v>1.299383</v>
       </c>
       <c r="I4">
-        <v>0.005018792160088996</v>
+        <v>0.005425816501278846</v>
       </c>
       <c r="J4">
-        <v>0.005018792160088996</v>
+        <v>0.003655611729725819</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>3.29882510951338</v>
+        <v>4.55178</v>
       </c>
       <c r="N4">
-        <v>3.29882510951338</v>
+        <v>13.65534</v>
       </c>
       <c r="O4">
-        <v>0.06542629876659051</v>
+        <v>0.08718893185938011</v>
       </c>
       <c r="P4">
-        <v>0.06542629876659051</v>
+        <v>0.1182058087874616</v>
       </c>
       <c r="Q4">
-        <v>1.898708421333735</v>
+        <v>2.95725277587</v>
       </c>
       <c r="R4">
-        <v>1.898708421333735</v>
+        <v>17.74351665522</v>
       </c>
       <c r="S4">
-        <v>0.0003283609953134048</v>
+        <v>0.0004730711452115014</v>
       </c>
       <c r="T4">
-        <v>0.0003283609953134048</v>
+        <v>0.0004321145411251718</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -723,52 +723,52 @@
         <v>23</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>0.5755711073794449</v>
+        <v>0.6496915</v>
       </c>
       <c r="H5">
-        <v>0.5755711073794449</v>
+        <v>1.299383</v>
       </c>
       <c r="I5">
-        <v>0.005018792160088996</v>
+        <v>0.005425816501278846</v>
       </c>
       <c r="J5">
-        <v>0.005018792160088996</v>
+        <v>0.003655611729725819</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>4.19023981785531</v>
+        <v>4.321411</v>
       </c>
       <c r="N5">
-        <v>4.19023981785531</v>
+        <v>12.964233</v>
       </c>
       <c r="O5">
-        <v>0.08310591593232607</v>
+        <v>0.08277623461928645</v>
       </c>
       <c r="P5">
-        <v>0.08310591593232607</v>
+        <v>0.1122233241408928</v>
       </c>
       <c r="Q5">
-        <v>2.411780972148424</v>
+        <v>2.8075839947065</v>
       </c>
       <c r="R5">
-        <v>2.411780972148424</v>
+        <v>16.845503968239</v>
       </c>
       <c r="S5">
-        <v>0.0004170913193381733</v>
+        <v>0.0004491286597110537</v>
       </c>
       <c r="T5">
-        <v>0.0004170913193381733</v>
+        <v>0.0004102449000782705</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -785,52 +785,52 @@
         <v>24</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>0.5755711073794449</v>
+        <v>0.6496915</v>
       </c>
       <c r="H6">
-        <v>0.5755711073794449</v>
+        <v>1.299383</v>
       </c>
       <c r="I6">
-        <v>0.005018792160088996</v>
+        <v>0.005425816501278846</v>
       </c>
       <c r="J6">
-        <v>0.005018792160088996</v>
+        <v>0.003655611729725819</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>1.50652985644796</v>
+        <v>1.51639</v>
       </c>
       <c r="N6">
-        <v>1.50652985644796</v>
+        <v>4.54917</v>
       </c>
       <c r="O6">
-        <v>0.0298793264924835</v>
+        <v>0.02904631251559728</v>
       </c>
       <c r="P6">
-        <v>0.0298793264924835</v>
+        <v>0.03937934311131445</v>
       </c>
       <c r="Q6">
-        <v>0.8671150577759486</v>
+        <v>0.9851856936850001</v>
       </c>
       <c r="R6">
-        <v>0.8671150577759486</v>
+        <v>5.91111416211</v>
       </c>
       <c r="S6">
-        <v>0.0001499581295492157</v>
+        <v>0.00015759996174843</v>
       </c>
       <c r="T6">
-        <v>0.0001499581295492157</v>
+        <v>0.0001439555885866187</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -847,52 +847,52 @@
         <v>25</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>0.5755711073794449</v>
+        <v>0.6496915</v>
       </c>
       <c r="H7">
-        <v>0.5755711073794449</v>
+        <v>1.299383</v>
       </c>
       <c r="I7">
-        <v>0.005018792160088996</v>
+        <v>0.005425816501278846</v>
       </c>
       <c r="J7">
-        <v>0.005018792160088996</v>
+        <v>0.003655611729725819</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>37.8955529209752</v>
+        <v>37.915598</v>
       </c>
       <c r="N7">
-        <v>37.8955529209752</v>
+        <v>75.83119600000001</v>
       </c>
       <c r="O7">
-        <v>0.7515905466411961</v>
+        <v>0.7262698307979842</v>
       </c>
       <c r="P7">
-        <v>0.7515905466411961</v>
+        <v>0.6564236302062433</v>
       </c>
       <c r="Q7">
-        <v>21.81158535948206</v>
+        <v>24.633441738017</v>
       </c>
       <c r="R7">
-        <v>21.81158535948206</v>
+        <v>98.53376695206801</v>
       </c>
       <c r="S7">
-        <v>0.003772076743079838</v>
+        <v>0.003940606832324698</v>
       </c>
       <c r="T7">
-        <v>0.003772076743079838</v>
+        <v>0.002399629922251146</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -909,52 +909,52 @@
         <v>20</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>0.721663941584619</v>
+        <v>0.9977106666666667</v>
       </c>
       <c r="H8">
-        <v>0.721663941584619</v>
+        <v>2.993132</v>
       </c>
       <c r="I8">
-        <v>0.006292673982080351</v>
+        <v>0.008332254614231399</v>
       </c>
       <c r="J8">
-        <v>0.006292673982080351</v>
+        <v>0.008420710789519103</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>2.97403257029727</v>
+        <v>3.180483</v>
       </c>
       <c r="N8">
-        <v>2.97403257029727</v>
+        <v>6.360966</v>
       </c>
       <c r="O8">
-        <v>0.05898461938000204</v>
+        <v>0.06092186256078212</v>
       </c>
       <c r="P8">
-        <v>0.05898461938000204</v>
+        <v>0.05506293733437207</v>
       </c>
       <c r="Q8">
-        <v>2.146252067081763</v>
+        <v>3.173201814252</v>
       </c>
       <c r="R8">
-        <v>2.146252067081763</v>
+        <v>19.039210885512</v>
       </c>
       <c r="S8">
-        <v>0.0003711709797154513</v>
+        <v>0.0005076164704296479</v>
       </c>
       <c r="T8">
-        <v>0.0003711709797154513</v>
+        <v>0.0004636690705141611</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -971,52 +971,52 @@
         <v>21</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>0.721663941584619</v>
+        <v>0.9977106666666667</v>
       </c>
       <c r="H9">
-        <v>0.721663941584619</v>
+        <v>2.993132</v>
       </c>
       <c r="I9">
-        <v>0.006292673982080351</v>
+        <v>0.008332254614231399</v>
       </c>
       <c r="J9">
-        <v>0.006292673982080351</v>
+        <v>0.008420710789519103</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>0.555295461770121</v>
+        <v>0.7202763333333334</v>
       </c>
       <c r="N9">
-        <v>0.555295461770121</v>
+        <v>2.160829</v>
       </c>
       <c r="O9">
-        <v>0.01101329278740183</v>
+        <v>0.01379682764696979</v>
       </c>
       <c r="P9">
-        <v>0.01101329278740183</v>
+        <v>0.01870495641971579</v>
       </c>
       <c r="Q9">
-        <v>0.4007367116850766</v>
+        <v>0.7186273807142224</v>
       </c>
       <c r="R9">
-        <v>0.4007367116850766</v>
+        <v>6.467646426428001</v>
       </c>
       <c r="S9">
-        <v>6.93030609803167E-05</v>
+        <v>0.0001149586808232194</v>
       </c>
       <c r="T9">
-        <v>6.93030609803167E-05</v>
+        <v>0.0001575090283409854</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1033,52 +1033,52 @@
         <v>22</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>0.721663941584619</v>
+        <v>0.9977106666666667</v>
       </c>
       <c r="H10">
-        <v>0.721663941584619</v>
+        <v>2.993132</v>
       </c>
       <c r="I10">
-        <v>0.006292673982080351</v>
+        <v>0.008332254614231399</v>
       </c>
       <c r="J10">
-        <v>0.006292673982080351</v>
+        <v>0.008420710789519103</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>3.29882510951338</v>
+        <v>4.55178</v>
       </c>
       <c r="N10">
-        <v>3.29882510951338</v>
+        <v>13.65534</v>
       </c>
       <c r="O10">
-        <v>0.06542629876659051</v>
+        <v>0.08718893185938011</v>
       </c>
       <c r="P10">
-        <v>0.06542629876659051</v>
+        <v>0.1182058087874616</v>
       </c>
       <c r="Q10">
-        <v>2.380643131129738</v>
+        <v>4.541359458320001</v>
       </c>
       <c r="R10">
-        <v>2.380643131129738</v>
+        <v>40.87223512488001</v>
       </c>
       <c r="S10">
-        <v>0.0004117063679923398</v>
+        <v>0.0007264803797952269</v>
       </c>
       <c r="T10">
-        <v>0.0004117063679923398</v>
+        <v>0.0009953769294404097</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1095,52 +1095,52 @@
         <v>23</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>0.721663941584619</v>
+        <v>0.9977106666666667</v>
       </c>
       <c r="H11">
-        <v>0.721663941584619</v>
+        <v>2.993132</v>
       </c>
       <c r="I11">
-        <v>0.006292673982080351</v>
+        <v>0.008332254614231399</v>
       </c>
       <c r="J11">
-        <v>0.006292673982080351</v>
+        <v>0.008420710789519103</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>4.19023981785531</v>
+        <v>4.321411</v>
       </c>
       <c r="N11">
-        <v>4.19023981785531</v>
+        <v>12.964233</v>
       </c>
       <c r="O11">
-        <v>0.08310591593232607</v>
+        <v>0.08277623461928645</v>
       </c>
       <c r="P11">
-        <v>0.08310591593232607</v>
+        <v>0.1122233241408928</v>
       </c>
       <c r="Q11">
-        <v>3.023944983138279</v>
+        <v>4.311517849750667</v>
       </c>
       <c r="R11">
-        <v>3.023944983138279</v>
+        <v>38.803660647756</v>
       </c>
       <c r="S11">
-        <v>0.0005229584349443051</v>
+        <v>0.0006897126628552504</v>
       </c>
       <c r="T11">
-        <v>0.0005229584349443051</v>
+        <v>0.0009450001564289158</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1157,52 +1157,52 @@
         <v>24</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>0.721663941584619</v>
+        <v>0.9977106666666667</v>
       </c>
       <c r="H12">
-        <v>0.721663941584619</v>
+        <v>2.993132</v>
       </c>
       <c r="I12">
-        <v>0.006292673982080351</v>
+        <v>0.008332254614231399</v>
       </c>
       <c r="J12">
-        <v>0.006292673982080351</v>
+        <v>0.008420710789519103</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>1.50652985644796</v>
+        <v>1.51639</v>
       </c>
       <c r="N12">
-        <v>1.50652985644796</v>
+        <v>4.54917</v>
       </c>
       <c r="O12">
-        <v>0.0298793264924835</v>
+        <v>0.02904631251559728</v>
       </c>
       <c r="P12">
-        <v>0.0298793264924835</v>
+        <v>0.03937934311131445</v>
       </c>
       <c r="Q12">
-        <v>1.087208274319145</v>
+        <v>1.512918477826667</v>
       </c>
       <c r="R12">
-        <v>1.087208274319145</v>
+        <v>13.61626630044</v>
       </c>
       <c r="S12">
-        <v>0.0001880208604213351</v>
+        <v>0.0002420212714844927</v>
       </c>
       <c r="T12">
-        <v>0.0001880208604213351</v>
+        <v>0.0003316020594216203</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1219,52 +1219,52 @@
         <v>25</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>0.721663941584619</v>
+        <v>0.9977106666666667</v>
       </c>
       <c r="H13">
-        <v>0.721663941584619</v>
+        <v>2.993132</v>
       </c>
       <c r="I13">
-        <v>0.006292673982080351</v>
+        <v>0.008332254614231399</v>
       </c>
       <c r="J13">
-        <v>0.006292673982080351</v>
+        <v>0.008420710789519103</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>37.8955529209752</v>
+        <v>37.915598</v>
       </c>
       <c r="N13">
-        <v>37.8955529209752</v>
+        <v>75.83119600000001</v>
       </c>
       <c r="O13">
-        <v>0.7515905466411961</v>
+        <v>0.7262698307979842</v>
       </c>
       <c r="P13">
-        <v>0.7515905466411961</v>
+        <v>0.6564236302062433</v>
       </c>
       <c r="Q13">
-        <v>27.34785408947948</v>
+        <v>37.82879655764534</v>
       </c>
       <c r="R13">
-        <v>27.34785408947948</v>
+        <v>226.972779345872</v>
       </c>
       <c r="S13">
-        <v>0.004729514278026602</v>
+        <v>0.006051465148843561</v>
       </c>
       <c r="T13">
-        <v>0.004729514278026602</v>
+        <v>0.00552755354537301</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1281,52 +1281,52 @@
         <v>20</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F14">
         <v>1</v>
       </c>
       <c r="G14">
-        <v>37.7450692286778</v>
+        <v>42.05654266666667</v>
       </c>
       <c r="H14">
-        <v>37.7450692286778</v>
+        <v>126.169628</v>
       </c>
       <c r="I14">
-        <v>0.3291246817259363</v>
+        <v>0.3512299040198892</v>
       </c>
       <c r="J14">
-        <v>0.3291246817259363</v>
+        <v>0.354958601160661</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L14">
         <v>1</v>
       </c>
       <c r="M14">
-        <v>2.97403257029727</v>
+        <v>3.180483</v>
       </c>
       <c r="N14">
-        <v>2.97403257029727</v>
+        <v>6.360966</v>
       </c>
       <c r="O14">
-        <v>0.05898461938000204</v>
+        <v>0.06092186256078212</v>
       </c>
       <c r="P14">
-        <v>0.05898461938000204</v>
+        <v>0.05506293733437207</v>
       </c>
       <c r="Q14">
-        <v>112.255065254213</v>
+        <v>133.760118990108</v>
       </c>
       <c r="R14">
-        <v>112.255065254213</v>
+        <v>802.560713940648</v>
       </c>
       <c r="S14">
-        <v>0.01941329408016867</v>
+        <v>0.02139757993993638</v>
       </c>
       <c r="T14">
-        <v>0.01941329408016867</v>
+        <v>0.01954506321200584</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1343,52 +1343,52 @@
         <v>21</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F15">
         <v>1</v>
       </c>
       <c r="G15">
-        <v>37.7450692286778</v>
+        <v>42.05654266666667</v>
       </c>
       <c r="H15">
-        <v>37.7450692286778</v>
+        <v>126.169628</v>
       </c>
       <c r="I15">
-        <v>0.3291246817259363</v>
+        <v>0.3512299040198892</v>
       </c>
       <c r="J15">
-        <v>0.3291246817259363</v>
+        <v>0.354958601160661</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L15">
         <v>1</v>
       </c>
       <c r="M15">
-        <v>0.555295461770121</v>
+        <v>0.7202763333333334</v>
       </c>
       <c r="N15">
-        <v>0.555295461770121</v>
+        <v>2.160829</v>
       </c>
       <c r="O15">
-        <v>0.01101329278740183</v>
+        <v>0.01379682764696979</v>
       </c>
       <c r="P15">
-        <v>0.01101329278740183</v>
+        <v>0.01870495641971579</v>
       </c>
       <c r="Q15">
-        <v>20.95966564688382</v>
+        <v>30.29233234462356</v>
       </c>
       <c r="R15">
-        <v>20.95966564688382</v>
+        <v>272.630991101612</v>
       </c>
       <c r="S15">
-        <v>0.003624746483408179</v>
+        <v>0.004845858450224154</v>
       </c>
       <c r="T15">
-        <v>0.003624746483408179</v>
+        <v>0.006639485165513443</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1405,52 +1405,52 @@
         <v>22</v>
       </c>
       <c r="E16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F16">
         <v>1</v>
       </c>
       <c r="G16">
-        <v>37.7450692286778</v>
+        <v>42.05654266666667</v>
       </c>
       <c r="H16">
-        <v>37.7450692286778</v>
+        <v>126.169628</v>
       </c>
       <c r="I16">
-        <v>0.3291246817259363</v>
+        <v>0.3512299040198892</v>
       </c>
       <c r="J16">
-        <v>0.3291246817259363</v>
+        <v>0.354958601160661</v>
       </c>
       <c r="K16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L16">
         <v>1</v>
       </c>
       <c r="M16">
-        <v>3.29882510951338</v>
+        <v>4.55178</v>
       </c>
       <c r="N16">
-        <v>3.29882510951338</v>
+        <v>13.65534</v>
       </c>
       <c r="O16">
-        <v>0.06542629876659051</v>
+        <v>0.08718893185938011</v>
       </c>
       <c r="P16">
-        <v>0.06542629876659051</v>
+        <v>0.1182058087874616</v>
       </c>
       <c r="Q16">
-        <v>124.5143821318832</v>
+        <v>191.43212977928</v>
       </c>
       <c r="R16">
-        <v>124.5143821318832</v>
+        <v>1722.88916801352</v>
       </c>
       <c r="S16">
-        <v>0.02153340975806012</v>
+        <v>0.03062336016856673</v>
       </c>
       <c r="T16">
-        <v>0.02153340975806012</v>
+        <v>0.04195816853626193</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1467,52 +1467,52 @@
         <v>23</v>
       </c>
       <c r="E17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F17">
         <v>1</v>
       </c>
       <c r="G17">
-        <v>37.7450692286778</v>
+        <v>42.05654266666667</v>
       </c>
       <c r="H17">
-        <v>37.7450692286778</v>
+        <v>126.169628</v>
       </c>
       <c r="I17">
-        <v>0.3291246817259363</v>
+        <v>0.3512299040198892</v>
       </c>
       <c r="J17">
-        <v>0.3291246817259363</v>
+        <v>0.354958601160661</v>
       </c>
       <c r="K17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L17">
         <v>1</v>
       </c>
       <c r="M17">
-        <v>4.19023981785531</v>
+        <v>4.321411</v>
       </c>
       <c r="N17">
-        <v>4.19023981785531</v>
+        <v>12.964233</v>
       </c>
       <c r="O17">
-        <v>0.08310591593232607</v>
+        <v>0.08277623461928645</v>
       </c>
       <c r="P17">
-        <v>0.08310591593232607</v>
+        <v>0.1122233241408928</v>
       </c>
       <c r="Q17">
-        <v>158.1608920097109</v>
+        <v>181.7436061017027</v>
       </c>
       <c r="R17">
-        <v>158.1608920097109</v>
+        <v>1635.692454915324</v>
       </c>
       <c r="S17">
-        <v>0.02735220813076924</v>
+        <v>0.02907348894045981</v>
       </c>
       <c r="T17">
-        <v>0.02735220813076924</v>
+        <v>0.03983463415465075</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1529,52 +1529,52 @@
         <v>24</v>
       </c>
       <c r="E18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F18">
         <v>1</v>
       </c>
       <c r="G18">
-        <v>37.7450692286778</v>
+        <v>42.05654266666667</v>
       </c>
       <c r="H18">
-        <v>37.7450692286778</v>
+        <v>126.169628</v>
       </c>
       <c r="I18">
-        <v>0.3291246817259363</v>
+        <v>0.3512299040198892</v>
       </c>
       <c r="J18">
-        <v>0.3291246817259363</v>
+        <v>0.354958601160661</v>
       </c>
       <c r="K18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L18">
         <v>1</v>
       </c>
       <c r="M18">
-        <v>1.50652985644796</v>
+        <v>1.51639</v>
       </c>
       <c r="N18">
-        <v>1.50652985644796</v>
+        <v>4.54917</v>
       </c>
       <c r="O18">
-        <v>0.0298793264924835</v>
+        <v>0.02904631251559728</v>
       </c>
       <c r="P18">
-        <v>0.0298793264924835</v>
+        <v>0.03937934311131445</v>
       </c>
       <c r="Q18">
-        <v>56.86407372669827</v>
+        <v>63.77412073430667</v>
       </c>
       <c r="R18">
-        <v>56.86407372669827</v>
+        <v>573.96708660876</v>
       </c>
       <c r="S18">
-        <v>0.00983402382202397</v>
+        <v>0.01020193355698494</v>
       </c>
       <c r="T18">
-        <v>0.00983402382202397</v>
+        <v>0.01397803654541789</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1591,52 +1591,52 @@
         <v>25</v>
       </c>
       <c r="E19">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F19">
         <v>1</v>
       </c>
       <c r="G19">
-        <v>37.7450692286778</v>
+        <v>42.05654266666667</v>
       </c>
       <c r="H19">
-        <v>37.7450692286778</v>
+        <v>126.169628</v>
       </c>
       <c r="I19">
-        <v>0.3291246817259363</v>
+        <v>0.3512299040198892</v>
       </c>
       <c r="J19">
-        <v>0.3291246817259363</v>
+        <v>0.354958601160661</v>
       </c>
       <c r="K19">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L19">
         <v>1</v>
       </c>
       <c r="M19">
-        <v>37.8955529209752</v>
+        <v>37.915598</v>
       </c>
       <c r="N19">
-        <v>37.8955529209752</v>
+        <v>75.83119600000001</v>
       </c>
       <c r="O19">
-        <v>0.7515905466411961</v>
+        <v>0.7262698307979842</v>
       </c>
       <c r="P19">
-        <v>0.7515905466411961</v>
+        <v>0.6564236302062433</v>
       </c>
       <c r="Q19">
-        <v>1430.370268461232</v>
+        <v>1594.598965019181</v>
       </c>
       <c r="R19">
-        <v>1430.370268461232</v>
+        <v>9567.593790115088</v>
       </c>
       <c r="S19">
-        <v>0.2473669994515062</v>
+        <v>0.2550876829637171</v>
       </c>
       <c r="T19">
-        <v>0.2473669994515062</v>
+        <v>0.2330032135468111</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1653,52 +1653,52 @@
         <v>20</v>
       </c>
       <c r="E20">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F20">
         <v>1</v>
       </c>
       <c r="G20">
-        <v>72.13232617757799</v>
+        <v>72.21795166666666</v>
       </c>
       <c r="H20">
-        <v>72.13232617757799</v>
+        <v>216.653855</v>
       </c>
       <c r="I20">
-        <v>0.6289703365362832</v>
+        <v>0.6031191016683428</v>
       </c>
       <c r="J20">
-        <v>0.6289703365362832</v>
+        <v>0.6095218835619034</v>
       </c>
       <c r="K20">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L20">
         <v>1</v>
       </c>
       <c r="M20">
-        <v>2.97403257029727</v>
+        <v>3.180483</v>
       </c>
       <c r="N20">
-        <v>2.97403257029727</v>
+        <v>6.360966</v>
       </c>
       <c r="O20">
-        <v>0.05898461938000204</v>
+        <v>0.06092186256078212</v>
       </c>
       <c r="P20">
-        <v>0.05898461938000204</v>
+        <v>0.05506293733437207</v>
       </c>
       <c r="Q20">
-        <v>214.5238874234233</v>
+        <v>229.687967570655</v>
       </c>
       <c r="R20">
-        <v>214.5238874234233</v>
+        <v>1378.12780542393</v>
       </c>
       <c r="S20">
-        <v>0.03709957590190446</v>
+        <v>0.03674313901962116</v>
       </c>
       <c r="T20">
-        <v>0.03709957590190446</v>
+        <v>0.03356206527849752</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1715,52 +1715,52 @@
         <v>21</v>
       </c>
       <c r="E21">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F21">
         <v>1</v>
       </c>
       <c r="G21">
-        <v>72.13232617757799</v>
+        <v>72.21795166666666</v>
       </c>
       <c r="H21">
-        <v>72.13232617757799</v>
+        <v>216.653855</v>
       </c>
       <c r="I21">
-        <v>0.6289703365362832</v>
+        <v>0.6031191016683428</v>
       </c>
       <c r="J21">
-        <v>0.6289703365362832</v>
+        <v>0.6095218835619034</v>
       </c>
       <c r="K21">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L21">
         <v>1</v>
       </c>
       <c r="M21">
-        <v>0.555295461770121</v>
+        <v>0.7202763333333334</v>
       </c>
       <c r="N21">
-        <v>0.555295461770121</v>
+        <v>2.160829</v>
       </c>
       <c r="O21">
-        <v>0.01101329278740183</v>
+        <v>0.01379682764696979</v>
       </c>
       <c r="P21">
-        <v>0.01101329278740183</v>
+        <v>0.01870495641971579</v>
       </c>
       <c r="Q21">
-        <v>40.05475337333116</v>
+        <v>52.01688142731056</v>
       </c>
       <c r="R21">
-        <v>40.05475337333116</v>
+        <v>468.151932845795</v>
       </c>
       <c r="S21">
-        <v>0.006927034470864752</v>
+        <v>0.008321130296313376</v>
       </c>
       <c r="T21">
-        <v>0.006927034470864752</v>
+        <v>0.01140108026888849</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1777,52 +1777,52 @@
         <v>22</v>
       </c>
       <c r="E22">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F22">
         <v>1</v>
       </c>
       <c r="G22">
-        <v>72.13232617757799</v>
+        <v>72.21795166666666</v>
       </c>
       <c r="H22">
-        <v>72.13232617757799</v>
+        <v>216.653855</v>
       </c>
       <c r="I22">
-        <v>0.6289703365362832</v>
+        <v>0.6031191016683428</v>
       </c>
       <c r="J22">
-        <v>0.6289703365362832</v>
+        <v>0.6095218835619034</v>
       </c>
       <c r="K22">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L22">
         <v>1</v>
       </c>
       <c r="M22">
-        <v>3.29882510951338</v>
+        <v>4.55178</v>
       </c>
       <c r="N22">
-        <v>3.29882510951338</v>
+        <v>13.65534</v>
       </c>
       <c r="O22">
-        <v>0.06542629876659051</v>
+        <v>0.08718893185938011</v>
       </c>
       <c r="P22">
-        <v>0.06542629876659051</v>
+        <v>0.1182058087874616</v>
       </c>
       <c r="Q22">
-        <v>237.9519288022036</v>
+        <v>328.7202280373</v>
       </c>
       <c r="R22">
-        <v>237.9519288022036</v>
+        <v>2958.4820523357</v>
       </c>
       <c r="S22">
-        <v>0.04115120115354584</v>
+        <v>0.05258531025845169</v>
       </c>
       <c r="T22">
-        <v>0.04115120115354584</v>
+        <v>0.07204902722009178</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1839,52 +1839,52 @@
         <v>23</v>
       </c>
       <c r="E23">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F23">
         <v>1</v>
       </c>
       <c r="G23">
-        <v>72.13232617757799</v>
+        <v>72.21795166666666</v>
       </c>
       <c r="H23">
-        <v>72.13232617757799</v>
+        <v>216.653855</v>
       </c>
       <c r="I23">
-        <v>0.6289703365362832</v>
+        <v>0.6031191016683428</v>
       </c>
       <c r="J23">
-        <v>0.6289703365362832</v>
+        <v>0.6095218835619034</v>
       </c>
       <c r="K23">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L23">
         <v>1</v>
       </c>
       <c r="M23">
-        <v>4.19023981785531</v>
+        <v>4.321411</v>
       </c>
       <c r="N23">
-        <v>4.19023981785531</v>
+        <v>12.964233</v>
       </c>
       <c r="O23">
-        <v>0.08310591593232607</v>
+        <v>0.08277623461928645</v>
       </c>
       <c r="P23">
-        <v>0.08310591593232607</v>
+        <v>0.1122233241408928</v>
       </c>
       <c r="Q23">
-        <v>302.2517453038142</v>
+        <v>312.0834507298017</v>
       </c>
       <c r="R23">
-        <v>302.2517453038142</v>
+        <v>2808.751056568215</v>
       </c>
       <c r="S23">
-        <v>0.05227115591211118</v>
+        <v>0.04992392826307202</v>
       </c>
       <c r="T23">
-        <v>0.05227115591211118</v>
+        <v>0.06840257190993503</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1901,52 +1901,52 @@
         <v>24</v>
       </c>
       <c r="E24">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F24">
         <v>1</v>
       </c>
       <c r="G24">
-        <v>72.13232617757799</v>
+        <v>72.21795166666666</v>
       </c>
       <c r="H24">
-        <v>72.13232617757799</v>
+        <v>216.653855</v>
       </c>
       <c r="I24">
-        <v>0.6289703365362832</v>
+        <v>0.6031191016683428</v>
       </c>
       <c r="J24">
-        <v>0.6289703365362832</v>
+        <v>0.6095218835619034</v>
       </c>
       <c r="K24">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L24">
         <v>1</v>
       </c>
       <c r="M24">
-        <v>1.50652985644796</v>
+        <v>1.51639</v>
       </c>
       <c r="N24">
-        <v>1.50652985644796</v>
+        <v>4.54917</v>
       </c>
       <c r="O24">
-        <v>0.0298793264924835</v>
+        <v>0.02904631251559728</v>
       </c>
       <c r="P24">
-        <v>0.0298793264924835</v>
+        <v>0.03937934311131445</v>
       </c>
       <c r="Q24">
-        <v>108.669503001564</v>
+        <v>109.5105797278167</v>
       </c>
       <c r="R24">
-        <v>108.669503001564</v>
+        <v>985.59521755035</v>
       </c>
       <c r="S24">
-        <v>0.01879321003945483</v>
+        <v>0.01751838591118498</v>
       </c>
       <c r="T24">
-        <v>0.01879321003945483</v>
+        <v>0.02400257138663885</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1963,52 +1963,52 @@
         <v>25</v>
       </c>
       <c r="E25">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F25">
         <v>1</v>
       </c>
       <c r="G25">
-        <v>72.13232617757799</v>
+        <v>72.21795166666666</v>
       </c>
       <c r="H25">
-        <v>72.13232617757799</v>
+        <v>216.653855</v>
       </c>
       <c r="I25">
-        <v>0.6289703365362832</v>
+        <v>0.6031191016683428</v>
       </c>
       <c r="J25">
-        <v>0.6289703365362832</v>
+        <v>0.6095218835619034</v>
       </c>
       <c r="K25">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L25">
         <v>1</v>
       </c>
       <c r="M25">
-        <v>37.8955529209752</v>
+        <v>37.915598</v>
       </c>
       <c r="N25">
-        <v>37.8955529209752</v>
+        <v>75.83119600000001</v>
       </c>
       <c r="O25">
-        <v>0.7515905466411961</v>
+        <v>0.7262698307979842</v>
       </c>
       <c r="P25">
-        <v>0.7515905466411961</v>
+        <v>0.6564236302062433</v>
       </c>
       <c r="Q25">
-        <v>2733.494383975451</v>
+        <v>2738.186823776764</v>
       </c>
       <c r="R25">
-        <v>2733.494383975451</v>
+        <v>16429.12094266058</v>
       </c>
       <c r="S25">
-        <v>0.4727281590584022</v>
+        <v>0.4380272079196996</v>
       </c>
       <c r="T25">
-        <v>0.4727281590584022</v>
+        <v>0.4001045674978517</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2025,52 +2025,52 @@
         <v>20</v>
       </c>
       <c r="E26">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F26">
         <v>1</v>
       </c>
       <c r="G26">
-        <v>0.62863516954816</v>
+        <v>0.695089</v>
       </c>
       <c r="H26">
-        <v>0.62863516954816</v>
+        <v>2.085267</v>
       </c>
       <c r="I26">
-        <v>0.005481493459338287</v>
+        <v>0.005804947988479781</v>
       </c>
       <c r="J26">
-        <v>0.005481493459338287</v>
+        <v>0.005866573985353178</v>
       </c>
       <c r="K26">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L26">
         <v>1</v>
       </c>
       <c r="M26">
-        <v>2.97403257029727</v>
+        <v>3.180483</v>
       </c>
       <c r="N26">
-        <v>2.97403257029727</v>
+        <v>6.360966</v>
       </c>
       <c r="O26">
-        <v>0.05898461938000204</v>
+        <v>0.06092186256078212</v>
       </c>
       <c r="P26">
-        <v>0.05898461938000204</v>
+        <v>0.05506293733437207</v>
       </c>
       <c r="Q26">
-        <v>1.869581469070575</v>
+        <v>2.210718747987</v>
       </c>
       <c r="R26">
-        <v>1.869581469070575</v>
+        <v>13.264312487922</v>
       </c>
       <c r="S26">
-        <v>0.0003233238053330395</v>
+        <v>0.0003536482435266538</v>
       </c>
       <c r="T26">
-        <v>0.0003233238053330395</v>
+        <v>0.0003230307957229594</v>
       </c>
     </row>
     <row r="27" spans="1:20">
@@ -2087,52 +2087,52 @@
         <v>21</v>
       </c>
       <c r="E27">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F27">
         <v>1</v>
       </c>
       <c r="G27">
-        <v>0.62863516954816</v>
+        <v>0.695089</v>
       </c>
       <c r="H27">
-        <v>0.62863516954816</v>
+        <v>2.085267</v>
       </c>
       <c r="I27">
-        <v>0.005481493459338287</v>
+        <v>0.005804947988479781</v>
       </c>
       <c r="J27">
-        <v>0.005481493459338287</v>
+        <v>0.005866573985353178</v>
       </c>
       <c r="K27">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L27">
         <v>1</v>
       </c>
       <c r="M27">
-        <v>0.555295461770121</v>
+        <v>0.7202763333333334</v>
       </c>
       <c r="N27">
-        <v>0.555295461770121</v>
+        <v>2.160829</v>
       </c>
       <c r="O27">
-        <v>0.01101329278740183</v>
+        <v>0.01379682764696979</v>
       </c>
       <c r="P27">
-        <v>0.01101329278740183</v>
+        <v>0.01870495641971579</v>
       </c>
       <c r="Q27">
-        <v>0.3490782567591838</v>
+        <v>0.5006561562603333</v>
       </c>
       <c r="R27">
-        <v>0.3490782567591838</v>
+        <v>4.505905406343</v>
       </c>
       <c r="S27">
-        <v>6.036929237992068E-05</v>
+        <v>8.008986689667952E-05</v>
       </c>
       <c r="T27">
-        <v>6.036929237992068E-05</v>
+        <v>0.0001097340107290696</v>
       </c>
     </row>
     <row r="28" spans="1:20">
@@ -2149,52 +2149,52 @@
         <v>22</v>
       </c>
       <c r="E28">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F28">
         <v>1</v>
       </c>
       <c r="G28">
-        <v>0.62863516954816</v>
+        <v>0.695089</v>
       </c>
       <c r="H28">
-        <v>0.62863516954816</v>
+        <v>2.085267</v>
       </c>
       <c r="I28">
-        <v>0.005481493459338287</v>
+        <v>0.005804947988479781</v>
       </c>
       <c r="J28">
-        <v>0.005481493459338287</v>
+        <v>0.005866573985353178</v>
       </c>
       <c r="K28">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L28">
         <v>1</v>
       </c>
       <c r="M28">
-        <v>3.29882510951338</v>
+        <v>4.55178</v>
       </c>
       <c r="N28">
-        <v>3.29882510951338</v>
+        <v>13.65534</v>
       </c>
       <c r="O28">
-        <v>0.06542629876659051</v>
+        <v>0.08718893185938011</v>
       </c>
       <c r="P28">
-        <v>0.06542629876659051</v>
+        <v>0.1182058087874616</v>
       </c>
       <c r="Q28">
-        <v>2.073757482028671</v>
+        <v>3.16389220842</v>
       </c>
       <c r="R28">
-        <v>2.073757482028671</v>
+        <v>28.47502987578</v>
       </c>
       <c r="S28">
-        <v>0.0003586338287577785</v>
+        <v>0.0005061272146148092</v>
       </c>
       <c r="T28">
-        <v>0.0003586338287577785</v>
+        <v>0.0006934631227501542</v>
       </c>
     </row>
     <row r="29" spans="1:20">
@@ -2211,52 +2211,52 @@
         <v>23</v>
       </c>
       <c r="E29">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F29">
         <v>1</v>
       </c>
       <c r="G29">
-        <v>0.62863516954816</v>
+        <v>0.695089</v>
       </c>
       <c r="H29">
-        <v>0.62863516954816</v>
+        <v>2.085267</v>
       </c>
       <c r="I29">
-        <v>0.005481493459338287</v>
+        <v>0.005804947988479781</v>
       </c>
       <c r="J29">
-        <v>0.005481493459338287</v>
+        <v>0.005866573985353178</v>
       </c>
       <c r="K29">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L29">
         <v>1</v>
       </c>
       <c r="M29">
-        <v>4.19023981785531</v>
+        <v>4.321411</v>
       </c>
       <c r="N29">
-        <v>4.19023981785531</v>
+        <v>12.964233</v>
       </c>
       <c r="O29">
-        <v>0.08310591593232607</v>
+        <v>0.08277623461928645</v>
       </c>
       <c r="P29">
-        <v>0.08310591593232607</v>
+        <v>0.1122233241408928</v>
       </c>
       <c r="Q29">
-        <v>2.634132118344924</v>
+        <v>3.003765250579</v>
       </c>
       <c r="R29">
-        <v>2.634132118344924</v>
+        <v>27.033887255211</v>
       </c>
       <c r="S29">
-        <v>0.0004555445346153628</v>
+        <v>0.0004805117366471573</v>
       </c>
       <c r="T29">
-        <v>0.0004555445346153628</v>
+        <v>0.0006583664339548192</v>
       </c>
     </row>
     <row r="30" spans="1:20">
@@ -2273,52 +2273,52 @@
         <v>24</v>
       </c>
       <c r="E30">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F30">
         <v>1</v>
       </c>
       <c r="G30">
-        <v>0.62863516954816</v>
+        <v>0.695089</v>
       </c>
       <c r="H30">
-        <v>0.62863516954816</v>
+        <v>2.085267</v>
       </c>
       <c r="I30">
-        <v>0.005481493459338287</v>
+        <v>0.005804947988479781</v>
       </c>
       <c r="J30">
-        <v>0.005481493459338287</v>
+        <v>0.005866573985353178</v>
       </c>
       <c r="K30">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L30">
         <v>1</v>
       </c>
       <c r="M30">
-        <v>1.50652985644796</v>
+        <v>1.51639</v>
       </c>
       <c r="N30">
-        <v>1.50652985644796</v>
+        <v>4.54917</v>
       </c>
       <c r="O30">
-        <v>0.0298793264924835</v>
+        <v>0.02904631251559728</v>
       </c>
       <c r="P30">
-        <v>0.0298793264924835</v>
+        <v>0.03937934311131445</v>
       </c>
       <c r="Q30">
-        <v>0.9470576517375284</v>
+        <v>1.05402600871</v>
       </c>
       <c r="R30">
-        <v>0.9470576517375284</v>
+        <v>9.48623407839</v>
       </c>
       <c r="S30">
-        <v>0.0001637833327379815</v>
+        <v>0.0001686123334101715</v>
       </c>
       <c r="T30">
-        <v>0.0001637833327379815</v>
+        <v>0.0002310218298571342</v>
       </c>
     </row>
     <row r="31" spans="1:20">
@@ -2335,52 +2335,52 @@
         <v>25</v>
       </c>
       <c r="E31">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F31">
         <v>1</v>
       </c>
       <c r="G31">
-        <v>0.62863516954816</v>
+        <v>0.695089</v>
       </c>
       <c r="H31">
-        <v>0.62863516954816</v>
+        <v>2.085267</v>
       </c>
       <c r="I31">
-        <v>0.005481493459338287</v>
+        <v>0.005804947988479781</v>
       </c>
       <c r="J31">
-        <v>0.005481493459338287</v>
+        <v>0.005866573985353178</v>
       </c>
       <c r="K31">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L31">
         <v>1</v>
       </c>
       <c r="M31">
-        <v>37.8955529209752</v>
+        <v>37.915598</v>
       </c>
       <c r="N31">
-        <v>37.8955529209752</v>
+        <v>75.83119600000001</v>
       </c>
       <c r="O31">
-        <v>0.7515905466411961</v>
+        <v>0.7262698307979842</v>
       </c>
       <c r="P31">
-        <v>0.7515905466411961</v>
+        <v>0.6564236302062433</v>
       </c>
       <c r="Q31">
-        <v>23.82247733559851</v>
+        <v>26.354715098222</v>
       </c>
       <c r="R31">
-        <v>23.82247733559851</v>
+        <v>158.128290589332</v>
       </c>
       <c r="S31">
-        <v>0.004119838665514203</v>
+        <v>0.004215958593384309</v>
       </c>
       <c r="T31">
-        <v>0.004119838665514203</v>
+        <v>0.003850957792339042</v>
       </c>
     </row>
     <row r="32" spans="1:20">
@@ -2397,52 +2397,52 @@
         <v>20</v>
       </c>
       <c r="E32">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F32">
         <v>1</v>
       </c>
       <c r="G32">
-        <v>2.87992686855066</v>
+        <v>3.1237945</v>
       </c>
       <c r="H32">
-        <v>2.87992686855066</v>
+        <v>6.247589</v>
       </c>
       <c r="I32">
-        <v>0.02511202213627286</v>
+        <v>0.026087975207778</v>
       </c>
       <c r="J32">
-        <v>0.02511202213627286</v>
+        <v>0.01757661877283757</v>
       </c>
       <c r="K32">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L32">
         <v>1</v>
       </c>
       <c r="M32">
-        <v>2.97403257029727</v>
+        <v>3.180483</v>
       </c>
       <c r="N32">
-        <v>2.97403257029727</v>
+        <v>6.360966</v>
       </c>
       <c r="O32">
-        <v>0.05898461938000204</v>
+        <v>0.06092186256078212</v>
       </c>
       <c r="P32">
-        <v>0.05898461938000204</v>
+        <v>0.05506293733437207</v>
       </c>
       <c r="Q32">
-        <v>8.564996307143888</v>
+        <v>9.935175302743501</v>
       </c>
       <c r="R32">
-        <v>8.564996307143888</v>
+        <v>39.740701210974</v>
       </c>
       <c r="S32">
-        <v>0.00148122306757024</v>
+        <v>0.001589328040097342</v>
       </c>
       <c r="T32">
-        <v>0.00148122306757024</v>
+        <v>0.0009678202580389027</v>
       </c>
     </row>
     <row r="33" spans="1:20">
@@ -2459,52 +2459,52 @@
         <v>21</v>
       </c>
       <c r="E33">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F33">
         <v>1</v>
       </c>
       <c r="G33">
-        <v>2.87992686855066</v>
+        <v>3.1237945</v>
       </c>
       <c r="H33">
-        <v>2.87992686855066</v>
+        <v>6.247589</v>
       </c>
       <c r="I33">
-        <v>0.02511202213627286</v>
+        <v>0.026087975207778</v>
       </c>
       <c r="J33">
-        <v>0.02511202213627286</v>
+        <v>0.01757661877283757</v>
       </c>
       <c r="K33">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L33">
         <v>1</v>
       </c>
       <c r="M33">
-        <v>0.555295461770121</v>
+        <v>0.7202763333333334</v>
       </c>
       <c r="N33">
-        <v>0.555295461770121</v>
+        <v>2.160829</v>
       </c>
       <c r="O33">
-        <v>0.01101329278740183</v>
+        <v>0.01379682764696979</v>
       </c>
       <c r="P33">
-        <v>0.01101329278740183</v>
+        <v>0.01870495641971579</v>
       </c>
       <c r="Q33">
-        <v>1.599210320336017</v>
+        <v>2.249995248546834</v>
       </c>
       <c r="R33">
-        <v>1.599210320336017</v>
+        <v>13.499971491281</v>
       </c>
       <c r="S33">
-        <v>0.0002765660522704891</v>
+        <v>0.000359931297600134</v>
       </c>
       <c r="T33">
-        <v>0.0002765660522704891</v>
+        <v>0.0003287698881518851</v>
       </c>
     </row>
     <row r="34" spans="1:20">
@@ -2521,52 +2521,52 @@
         <v>22</v>
       </c>
       <c r="E34">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F34">
         <v>1</v>
       </c>
       <c r="G34">
-        <v>2.87992686855066</v>
+        <v>3.1237945</v>
       </c>
       <c r="H34">
-        <v>2.87992686855066</v>
+        <v>6.247589</v>
       </c>
       <c r="I34">
-        <v>0.02511202213627286</v>
+        <v>0.026087975207778</v>
       </c>
       <c r="J34">
-        <v>0.02511202213627286</v>
+        <v>0.01757661877283757</v>
       </c>
       <c r="K34">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L34">
         <v>1</v>
       </c>
       <c r="M34">
-        <v>3.29882510951338</v>
+        <v>4.55178</v>
       </c>
       <c r="N34">
-        <v>3.29882510951338</v>
+        <v>13.65534</v>
       </c>
       <c r="O34">
-        <v>0.06542629876659051</v>
+        <v>0.08718893185938011</v>
       </c>
       <c r="P34">
-        <v>0.06542629876659051</v>
+        <v>0.1182058087874616</v>
       </c>
       <c r="Q34">
-        <v>9.500375067537156</v>
+        <v>14.21882532921</v>
       </c>
       <c r="R34">
-        <v>9.500375067537156</v>
+        <v>85.31295197526001</v>
       </c>
       <c r="S34">
-        <v>0.001642986662921023</v>
+        <v>0.002274582692740154</v>
       </c>
       <c r="T34">
-        <v>0.001642986662921023</v>
+        <v>0.002077658437792145</v>
       </c>
     </row>
     <row r="35" spans="1:20">
@@ -2583,52 +2583,52 @@
         <v>23</v>
       </c>
       <c r="E35">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F35">
         <v>1</v>
       </c>
       <c r="G35">
-        <v>2.87992686855066</v>
+        <v>3.1237945</v>
       </c>
       <c r="H35">
-        <v>2.87992686855066</v>
+        <v>6.247589</v>
       </c>
       <c r="I35">
-        <v>0.02511202213627286</v>
+        <v>0.026087975207778</v>
       </c>
       <c r="J35">
-        <v>0.02511202213627286</v>
+        <v>0.01757661877283757</v>
       </c>
       <c r="K35">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L35">
         <v>1</v>
       </c>
       <c r="M35">
-        <v>4.19023981785531</v>
+        <v>4.321411</v>
       </c>
       <c r="N35">
-        <v>4.19023981785531</v>
+        <v>12.964233</v>
       </c>
       <c r="O35">
-        <v>0.08310591593232607</v>
+        <v>0.08277623461928645</v>
       </c>
       <c r="P35">
-        <v>0.08310591593232607</v>
+        <v>0.1122233241408928</v>
       </c>
       <c r="Q35">
-        <v>12.06758423711233</v>
+        <v>13.4991999140395</v>
       </c>
       <c r="R35">
-        <v>12.06758423711233</v>
+        <v>80.99519948423699</v>
       </c>
       <c r="S35">
-        <v>0.002086957600547804</v>
+        <v>0.00215946435654116</v>
       </c>
       <c r="T35">
-        <v>0.002086957600547804</v>
+        <v>0.001972506585845052</v>
       </c>
     </row>
     <row r="36" spans="1:20">
@@ -2645,52 +2645,52 @@
         <v>24</v>
       </c>
       <c r="E36">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F36">
         <v>1</v>
       </c>
       <c r="G36">
-        <v>2.87992686855066</v>
+        <v>3.1237945</v>
       </c>
       <c r="H36">
-        <v>2.87992686855066</v>
+        <v>6.247589</v>
       </c>
       <c r="I36">
-        <v>0.02511202213627286</v>
+        <v>0.026087975207778</v>
       </c>
       <c r="J36">
-        <v>0.02511202213627286</v>
+        <v>0.01757661877283757</v>
       </c>
       <c r="K36">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L36">
         <v>1</v>
       </c>
       <c r="M36">
-        <v>1.50652985644796</v>
+        <v>1.51639</v>
       </c>
       <c r="N36">
-        <v>1.50652985644796</v>
+        <v>4.54917</v>
       </c>
       <c r="O36">
-        <v>0.0298793264924835</v>
+        <v>0.02904631251559728</v>
       </c>
       <c r="P36">
-        <v>0.0298793264924835</v>
+        <v>0.03937934311131445</v>
       </c>
       <c r="Q36">
-        <v>4.338695811858249</v>
+        <v>4.736890741855</v>
       </c>
       <c r="R36">
-        <v>4.338695811858249</v>
+        <v>28.42134445113</v>
       </c>
       <c r="S36">
-        <v>0.00075033030829617</v>
+        <v>0.0007577594807842738</v>
       </c>
       <c r="T36">
-        <v>0.00075033030829617</v>
+        <v>0.0006921557013923412</v>
       </c>
     </row>
     <row r="37" spans="1:20">
@@ -2707,52 +2707,52 @@
         <v>25</v>
       </c>
       <c r="E37">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F37">
         <v>1</v>
       </c>
       <c r="G37">
-        <v>2.87992686855066</v>
+        <v>3.1237945</v>
       </c>
       <c r="H37">
-        <v>2.87992686855066</v>
+        <v>6.247589</v>
       </c>
       <c r="I37">
-        <v>0.02511202213627286</v>
+        <v>0.026087975207778</v>
       </c>
       <c r="J37">
-        <v>0.02511202213627286</v>
+        <v>0.01757661877283757</v>
       </c>
       <c r="K37">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L37">
         <v>1</v>
       </c>
       <c r="M37">
-        <v>37.8955529209752</v>
+        <v>37.915598</v>
       </c>
       <c r="N37">
-        <v>37.8955529209752</v>
+        <v>75.83119600000001</v>
       </c>
       <c r="O37">
-        <v>0.7515905466411961</v>
+        <v>0.7262698307979842</v>
       </c>
       <c r="P37">
-        <v>0.7515905466411961</v>
+        <v>0.6564236302062433</v>
       </c>
       <c r="Q37">
-        <v>109.1364210556999</v>
+        <v>118.440536496611</v>
       </c>
       <c r="R37">
-        <v>109.1364210556999</v>
+        <v>473.762145986444</v>
       </c>
       <c r="S37">
-        <v>0.01887395844466714</v>
+        <v>0.01894690934001493</v>
       </c>
       <c r="T37">
-        <v>0.01887395844466714</v>
+        <v>0.01153770790161724</v>
       </c>
     </row>
   </sheetData>
